--- a/inst/extdata/Trial_Summary.xlsx
+++ b/inst/extdata/Trial_Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a076274\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a052324\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54500456-D40D-43C4-967C-802FF7B19AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA150162-83A2-4D6D-8093-29E27D37D991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{41685C55-A269-400F-9B0A-3362ED3F8FE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="161">
   <si>
     <t>Use as many rows as needed.</t>
   </si>
@@ -425,16 +425,10 @@
     <t>Trial Type</t>
   </si>
   <si>
-    <t>FDA Desired</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
     <t>Conditional</t>
-  </si>
-  <si>
-    <t>FDA Notes</t>
   </si>
   <si>
     <t>If applicable.</t>
@@ -537,18 +531,33 @@
   <si>
     <t>TSVCDVER</t>
   </si>
+  <si>
+    <t>FDA Desired</t>
+  </si>
+  <si>
+    <t>FDA Notes</t>
+  </si>
+  <si>
+    <t>Pediatric Investigation Plan Indicator</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -586,12 +595,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -926,37 +939,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C78307-F988-46E9-8AE4-FABC2A0C1F67}">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.1796875" customWidth="1"/>
+    <col min="12" max="12" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -965,31 +978,31 @@
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -1003,13 +1016,13 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>5</v>
@@ -1023,13 +1036,13 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>7</v>
@@ -1043,13 +1056,13 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>9</v>
@@ -1063,13 +1076,13 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -1083,13 +1096,13 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -1103,13 +1116,13 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>15</v>
@@ -1118,20 +1131,20 @@
         <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
@@ -1140,20 +1153,20 @@
         <v>18</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>19</v>
@@ -1162,20 +1175,20 @@
         <v>20</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>21</v>
@@ -1184,20 +1197,20 @@
         <v>22</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>23</v>
@@ -1206,20 +1219,20 @@
         <v>24</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>25</v>
@@ -1228,20 +1241,20 @@
         <v>26</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>27</v>
@@ -1250,20 +1263,20 @@
         <v>28</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>29</v>
@@ -1272,20 +1285,20 @@
         <v>30</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>31</v>
@@ -1294,20 +1307,20 @@
         <v>32</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>33</v>
@@ -1316,20 +1329,20 @@
         <v>34</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>35</v>
@@ -1338,20 +1351,20 @@
         <v>36</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>37</v>
@@ -1360,20 +1373,20 @@
         <v>38</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>39</v>
@@ -1382,20 +1395,20 @@
         <v>40</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>41</v>
@@ -1409,13 +1422,13 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>43</v>
@@ -1431,13 +1444,13 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>45</v>
@@ -1446,20 +1459,20 @@
         <v>46</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>47</v>
@@ -1473,13 +1486,13 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>49</v>
@@ -1488,20 +1501,20 @@
         <v>50</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>51</v>
@@ -1510,20 +1523,20 @@
         <v>52</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>53</v>
@@ -1532,20 +1545,20 @@
         <v>54</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>55</v>
@@ -1559,13 +1572,13 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>57</v>
@@ -1579,13 +1592,13 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>59</v>
@@ -1599,13 +1612,13 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>61</v>
@@ -1621,13 +1634,13 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>62</v>
@@ -1643,13 +1656,13 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>63</v>
@@ -1663,13 +1676,13 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>67</v>
@@ -1678,20 +1691,20 @@
         <v>68</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>69</v>
@@ -1707,13 +1720,13 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>71</v>
@@ -1729,13 +1742,13 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>73</v>
@@ -1744,20 +1757,20 @@
         <v>74</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>75</v>
@@ -1766,20 +1779,20 @@
         <v>76</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>77</v>
@@ -1788,20 +1801,20 @@
         <v>78</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>79</v>
@@ -1815,13 +1828,13 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>81</v>
@@ -1835,13 +1848,13 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>83</v>
@@ -1850,20 +1863,20 @@
         <v>84</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>85</v>
@@ -1877,13 +1890,13 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>87</v>
@@ -1899,13 +1912,13 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>89</v>
@@ -1919,13 +1932,13 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>91</v>
@@ -1939,13 +1952,13 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>93</v>
@@ -1959,13 +1972,13 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>95</v>
@@ -1979,13 +1992,13 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>97</v>
@@ -1999,13 +2012,13 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>99</v>
@@ -2014,20 +2027,20 @@
         <v>100</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>101</v>
@@ -2036,20 +2049,20 @@
         <v>102</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>103</v>
@@ -2058,20 +2071,20 @@
         <v>104</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>105</v>
@@ -2080,20 +2093,20 @@
         <v>106</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>107</v>
@@ -2102,20 +2115,20 @@
         <v>108</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>109</v>
@@ -2129,13 +2142,13 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>111</v>
@@ -2149,13 +2162,13 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>113</v>
@@ -2169,13 +2182,13 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>115</v>
@@ -2189,13 +2202,13 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>117</v>
@@ -2204,20 +2217,20 @@
         <v>118</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>119</v>
@@ -2231,13 +2244,13 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>121</v>
@@ -2246,20 +2259,20 @@
         <v>122</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>123</v>
@@ -2273,13 +2286,13 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>125</v>
@@ -2288,20 +2301,20 @@
         <v>126</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>127</v>
@@ -2310,13 +2323,173 @@
         <v>128</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
     </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/Trial_Summary.xlsx
+++ b/inst/extdata/Trial_Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a052324\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA150162-83A2-4D6D-8093-29E27D37D991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC63ECE-EAEE-499C-82A7-3275086EFB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{41685C55-A269-400F-9B0A-3362ED3F8FE9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="160">
   <si>
     <t>Use as many rows as needed.</t>
   </si>
@@ -537,27 +537,18 @@
   <si>
     <t>FDA Notes</t>
   </si>
-  <si>
-    <t>Pediatric Investigation Plan Indicator</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -595,16 +586,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -939,11 +926,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C78307-F988-46E9-8AE4-FABC2A0C1F67}">
-  <dimension ref="A1:M72"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2330,166 +2315,6 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
-      <c r="L72" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inst/extdata/Trial_Summary.xlsx
+++ b/inst/extdata/Trial_Summary.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a052324\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC63ECE-EAEE-499C-82A7-3275086EFB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FEF43B-7286-4DD5-B144-1254ED5B181F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{41685C55-A269-400F-9B0A-3362ED3F8FE9}"/>
   </bookViews>
   <sheets>
     <sheet name="TS" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TS!$A$1:$M$66</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="164">
   <si>
     <t>Use as many rows as needed.</t>
   </si>
@@ -537,12 +540,24 @@
   <si>
     <t>FDA Notes</t>
   </si>
+  <si>
+    <t>AEDICT</t>
+  </si>
+  <si>
+    <t>Adverse Event Dictionary</t>
+  </si>
+  <si>
+    <t>CMDICT</t>
+  </si>
+  <si>
+    <t>WHODrug Dictionary Version</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -550,13 +565,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFEA9999"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -586,11 +613,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -926,9 +959,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C78307-F988-46E9-8AE4-FABC2A0C1F67}">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1087,13 +1122,13 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
+        <v>130</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1109,43 +1144,39 @@
       <c r="E8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>131</v>
-      </c>
+      <c r="F8" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>132</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1154,35 +1185,35 @@
         <v>130</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>133</v>
+        <v>16</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1195,60 +1226,60 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>135</v>
+        <v>22</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>135</v>
+        <v>24</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1264,10 +1295,10 @@
         <v>130</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>135</v>
@@ -1286,10 +1317,10 @@
         <v>130</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>135</v>
@@ -1308,10 +1339,10 @@
         <v>130</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>135</v>
@@ -1330,10 +1361,10 @@
         <v>130</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>135</v>
@@ -1352,10 +1383,10 @@
         <v>130</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>135</v>
@@ -1374,10 +1405,10 @@
         <v>130</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>135</v>
@@ -1393,15 +1424,17 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1413,39 +1446,37 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>136</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1460,18 +1491,20 @@
         <v>129</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1480,36 +1513,34 @@
         <v>130</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1524,54 +1555,58 @@
         <v>130</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H28" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H29" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1586,10 +1621,10 @@
         <v>129</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1606,14 +1641,12 @@
         <v>129</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1628,14 +1661,12 @@
         <v>129</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1650,12 +1681,14 @@
         <v>129</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H33" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1667,16 +1700,16 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1692,14 +1725,12 @@
         <v>129</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
@@ -1714,13 +1745,13 @@
         <v>130</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1733,16 +1764,16 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -1755,16 +1786,16 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -1777,16 +1808,16 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -1802,12 +1833,14 @@
         <v>129</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H40" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -1822,12 +1855,14 @@
         <v>129</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H41" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
@@ -1839,17 +1874,15 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>141</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -1864,10 +1897,10 @@
         <v>129</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -1881,16 +1914,16 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -1903,13 +1936,13 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -1923,15 +1956,17 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H46" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -1943,13 +1978,13 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -1963,13 +1998,13 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -1986,10 +2021,10 @@
         <v>129</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -1997,7 +2032,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row r="50" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2006,20 +2041,18 @@
         <v>129</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>148</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
-    <row r="51" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2028,42 +2061,40 @@
         <v>129</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>147</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>131</v>
+        <v>100</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2072,20 +2103,20 @@
         <v>129</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
-    <row r="54" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2094,20 +2125,20 @@
         <v>130</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>145</v>
+        <v>104</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2116,32 +2147,36 @@
         <v>129</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H55" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H56" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -2156,10 +2191,10 @@
         <v>129</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
@@ -2176,10 +2211,10 @@
         <v>129</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
@@ -2193,17 +2228,15 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -2218,10 +2251,10 @@
         <v>129</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -2235,16 +2268,16 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -2260,10 +2293,10 @@
         <v>129</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -2277,16 +2310,16 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -2302,20 +2335,63 @@
         <v>129</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>142</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
     </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:M66" xr:uid="{B5C78307-F988-46E9-8AE4-FABC2A0C1F67}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/inst/extdata/Trial_Summary.xlsx
+++ b/inst/extdata/Trial_Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a052324\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FEF43B-7286-4DD5-B144-1254ED5B181F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D7D655-2F28-4C6F-A1E4-5D7356CB703B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{41685C55-A269-400F-9B0A-3362ED3F8FE9}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="TS" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TS!$A$1:$M$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TS!$A$1:$M$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="171">
   <si>
     <t>Use as many rows as needed.</t>
   </si>
@@ -551,6 +551,27 @@
   </si>
   <si>
     <t>WHODrug Dictionary Version</t>
+  </si>
+  <si>
+    <t>DOSE</t>
+  </si>
+  <si>
+    <t>Dose per Administration</t>
+  </si>
+  <si>
+    <t>`x`</t>
+  </si>
+  <si>
+    <t>DOSFRQ</t>
+  </si>
+  <si>
+    <t>Dosing Frequency</t>
+  </si>
+  <si>
+    <t>DOSU</t>
+  </si>
+  <si>
+    <t>Dose Units</t>
   </si>
 </sst>
 </file>
@@ -613,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -624,6 +645,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -959,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C78307-F988-46E9-8AE4-FABC2A0C1F67}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1294,37 +1318,35 @@
       <c r="E15" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="F15" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" s="2"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="F16" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="H16" s="2"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1338,15 +1360,13 @@
       <c r="E17" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="F17" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="H17" s="2"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1361,10 +1381,10 @@
         <v>130</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>135</v>
@@ -1383,10 +1403,10 @@
         <v>130</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>135</v>
@@ -1405,10 +1425,10 @@
         <v>130</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>135</v>
@@ -1427,10 +1447,10 @@
         <v>130</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>135</v>
@@ -1449,10 +1469,10 @@
         <v>130</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>135</v>
@@ -1468,15 +1488,17 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1488,23 +1510,23 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1513,13 +1535,13 @@
         <v>130</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>136</v>
+        <v>40</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1535,10 +1557,10 @@
         <v>129</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1546,29 +1568,29 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>137</v>
+        <v>44</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1577,96 +1599,100 @@
         <v>130</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>138</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H30" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" s="1"/>
+        <v>52</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H32" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1681,14 +1707,12 @@
         <v>129</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1703,14 +1727,12 @@
         <v>129</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
@@ -1725,10 +1747,10 @@
         <v>129</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -1742,16 +1764,16 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1767,10 +1789,10 @@
         <v>129</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>0</v>
@@ -1786,17 +1808,15 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
@@ -1811,13 +1831,13 @@
         <v>130</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -1833,13 +1853,13 @@
         <v>129</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -1852,16 +1872,16 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -1874,15 +1894,17 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H42" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
@@ -1897,12 +1919,14 @@
         <v>129</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H43" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -1914,16 +1938,16 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -1939,10 +1963,10 @@
         <v>129</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -1959,14 +1983,12 @@
         <v>129</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
@@ -1981,12 +2003,14 @@
         <v>130</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H47" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
@@ -1998,13 +2022,13 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -2021,12 +2045,14 @@
         <v>129</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H49" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
@@ -2038,13 +2064,13 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -2058,13 +2084,13 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -2072,7 +2098,7 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row r="52" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2081,20 +2107,18 @@
         <v>129</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>148</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
     </row>
-    <row r="53" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2103,14 +2127,12 @@
         <v>129</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>147</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -2122,23 +2144,21 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>131</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row r="55" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2147,35 +2167,35 @@
         <v>129</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row r="56" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -2188,21 +2208,23 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H57" s="1"/>
+        <v>104</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>131</v>
+      </c>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2211,32 +2233,36 @@
         <v>129</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H58" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H59" s="1"/>
+        <v>108</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>145</v>
+      </c>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
@@ -2251,10 +2277,10 @@
         <v>129</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -2268,17 +2294,15 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
@@ -2293,10 +2317,10 @@
         <v>129</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
@@ -2313,14 +2337,12 @@
         <v>129</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>142</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
@@ -2332,15 +2354,17 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="H64" s="1"/>
+        <v>118</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
@@ -2352,17 +2376,15 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>143</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -2377,10 +2399,10 @@
         <v>129</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>142</v>
@@ -2390,8 +2412,72 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
     </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M66" xr:uid="{B5C78307-F988-46E9-8AE4-FABC2A0C1F67}"/>
+  <autoFilter ref="A1:M69" xr:uid="{B5C78307-F988-46E9-8AE4-FABC2A0C1F67}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>